--- a/modules/nowcast-model/nowcast-model-variables.xlsx
+++ b/modules/nowcast-model/nowcast-model-variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA18C7D4-E636-4644-AC93-54940B9012BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD0509-7980-4C1E-A074-6F7BC78B0D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="12" r:id="rId1"/>
@@ -1481,83 +1481,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1565,116 +1512,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1735,42 +1585,17 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1959,6 +1784,69 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1984,28 +1872,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:P96" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4AECC335-00AC-41E6-A3CA-F63691B92F69}" name="Table13279" displayName="Table13279" ref="A1:P96" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:P96" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P96">
     <sortCondition ref="C1:C96"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="38"/>
-    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disporder" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="release" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{3DB70CAB-2218-410A-943E-4B1A1CE99CE0}" name="hist_source" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{06E67E4A-E969-4950-94C0-63C7BE6000C6}" name="hist_source_key" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{295FC803-26EF-45A2-9731-0EF02F4740DB}" name="hist_source_freq" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{B33FA9FC-D56B-4B27-ABE5-74F23C66DD3F}" name="hist_source_transform" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="31"/>
-    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="nc_input_reason" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{CA6DE630-5CD5-428A-8439-1A504496E546}" name="varname" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{62B19A4C-5AC5-4FBE-B49F-BB64B9102385}" name="fullname" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{D22B03C4-4AE3-48C2-A598-07C9E704433D}" name="dispgroup" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{FDF2E866-66A2-44DE-B360-10560B9D2BFE}" name="disporder" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{3D01EE11-409F-43C6-990A-ABD3232293C0}" name="release" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{814C0F50-71A5-4E9D-9399-51983A27304D}" name="units" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{4C279BEC-C29C-4B88-A87A-0A23F3DE4D9A}" name="st" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{4C82AECA-D40C-41E9-9170-45F127D67DD4}" name="d1" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{BCA31579-22E5-46AB-AC81-7237E8AE8CCD}" name="d2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{3DB70CAB-2218-410A-943E-4B1A1CE99CE0}" name="hist_source" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{06E67E4A-E969-4950-94C0-63C7BE6000C6}" name="hist_source_key" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{295FC803-26EF-45A2-9731-0EF02F4740DB}" name="hist_source_freq" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{B33FA9FC-D56B-4B27-ABE5-74F23C66DD3F}" name="hist_source_transform" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{5323D81D-334B-41E1-9C57-FB97D32790FE}" name="nc_dfm_input" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{136836AD-D381-4336-9040-09625567FE1C}" name="nc_method" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3F173539-12EB-41F3-B70E-7885DB3C4CE4}" name="nc_input_reason" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2310,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3B5527-644C-49DA-B440-BA66BC9FC6D2}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5075,7 +4963,7 @@
         <v>189</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>41</v>
@@ -5124,7 +5012,7 @@
         <v>189</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>234</v>
@@ -6958,35 +6846,35 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="N2:N96">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>AND($L2&lt;&gt;"d", $L2 &lt;&gt; "w", $L2&lt;&gt; "m")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O96">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"dfm.q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"dfm.m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>"calc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M96">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7002,7 +6890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F4DEC5-9444-4CCA-99A1-212DC975A3D7}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/modules/nowcast-model/nowcast-model-variables.xlsx
+++ b/modules/nowcast-model/nowcast-model-variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD0509-7980-4C1E-A074-6F7BC78B0D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83467E9A-42B2-4820-94E1-570750F0E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>pceshealth</t>
   </si>
   <si>
-    <t>pceschange</t>
-  </si>
-  <si>
     <t>pcesrec</t>
   </si>
   <si>
@@ -1381,6 +1378,9 @@
   </si>
   <si>
     <t>vintage_update</t>
+  </si>
+  <si>
+    <t>cbi</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2199,7 @@
   <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,67 +2231,67 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>42</v>
@@ -2312,35 +2312,35 @@
         <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N2" s="5">
         <v>1</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P2" s="6"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
@@ -2349,47 +2349,47 @@
         <v>43</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N3" s="5">
         <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P3" s="6"/>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>3</v>
@@ -2398,47 +2398,47 @@
         <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N4" s="5">
         <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="6"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>4</v>
@@ -2447,47 +2447,47 @@
         <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N5" s="5">
         <v>1</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5" s="6"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>3</v>
@@ -2496,47 +2496,47 @@
         <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P6" s="6"/>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>3</v>
@@ -2548,7 +2548,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>34</v>
@@ -2557,130 +2557,130 @@
         <v>6</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N7" s="5">
         <v>1</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="6"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P8" s="6"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P9" s="6"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>36</v>
@@ -2692,42 +2692,42 @@
         <v>4</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P10" s="6"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>36</v>
@@ -2739,42 +2739,42 @@
         <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P11" s="6"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>36</v>
@@ -2786,23 +2786,23 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P12" s="6"/>
       <c r="R12" s="3"/>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -2821,10 +2821,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>3</v>
@@ -2836,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>2</v>
@@ -2845,11 +2845,11 @@
         <v>5</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13" s="6"/>
       <c r="R13" s="3"/>
@@ -2859,7 +2859,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>21</v>
@@ -2868,10 +2868,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>3</v>
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>48</v>
@@ -2892,11 +2892,11 @@
         <v>5</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14" s="6"/>
       <c r="R14" s="3"/>
@@ -2906,7 +2906,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>21</v>
@@ -2915,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>49</v>
@@ -2939,11 +2939,11 @@
         <v>5</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15" s="6"/>
       <c r="R15" s="3"/>
@@ -2953,7 +2953,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -2962,10 +2962,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>3</v>
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>50</v>
@@ -2986,21 +2986,21 @@
         <v>5</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P16" s="6"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -3009,10 +3009,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>3</v>
@@ -3024,30 +3024,30 @@
         <v>4</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P17" s="6"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -3056,10 +3056,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>3</v>
@@ -3071,30 +3071,30 @@
         <v>4</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P18" s="6"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
@@ -3103,10 +3103,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>3</v>
@@ -3118,30 +3118,30 @@
         <v>4</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P19" s="6"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
@@ -3150,10 +3150,10 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>3</v>
@@ -3165,20 +3165,20 @@
         <v>4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P20" s="6"/>
       <c r="R20" s="3"/>
@@ -3188,7 +3188,7 @@
         <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -3197,10 +3197,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>3</v>
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>51</v>
@@ -3221,21 +3221,21 @@
         <v>5</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21" s="6"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -3244,10 +3244,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>3</v>
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>52</v>
@@ -3268,21 +3268,21 @@
         <v>5</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P22" s="6"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -3291,10 +3291,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>3</v>
@@ -3306,30 +3306,30 @@
         <v>4</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P23" s="6"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
@@ -3338,10 +3338,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>3</v>
@@ -3353,30 +3353,30 @@
         <v>4</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P24" s="6"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>21</v>
@@ -3385,10 +3385,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>3</v>
@@ -3400,20 +3400,20 @@
         <v>4</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P25" s="6"/>
       <c r="R25" s="3"/>
@@ -3423,7 +3423,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -3432,10 +3432,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>3</v>
@@ -3447,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>53</v>
@@ -3456,11 +3456,11 @@
         <v>5</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P26" s="6"/>
       <c r="R26" s="3"/>
@@ -3470,7 +3470,7 @@
         <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>21</v>
@@ -3479,10 +3479,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>3</v>
@@ -3494,7 +3494,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>54</v>
@@ -3503,11 +3503,11 @@
         <v>5</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P27" s="6"/>
       <c r="R27" s="3"/>
@@ -3517,7 +3517,7 @@
         <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>21</v>
@@ -3526,10 +3526,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>3</v>
@@ -3541,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>55</v>
@@ -3550,21 +3550,21 @@
         <v>5</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P28" s="6"/>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>21</v>
@@ -3573,10 +3573,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>3</v>
@@ -3588,7 +3588,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>56</v>
@@ -3597,21 +3597,21 @@
         <v>5</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P29" s="6"/>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
@@ -3620,10 +3620,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>3</v>
@@ -3635,7 +3635,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>57</v>
@@ -3644,11 +3644,11 @@
         <v>5</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P30" s="6"/>
       <c r="R30" s="3"/>
@@ -3658,7 +3658,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>21</v>
@@ -3667,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>3</v>
@@ -3682,7 +3682,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>58</v>
@@ -3691,11 +3691,11 @@
         <v>5</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P31" s="6"/>
       <c r="R31" s="3"/>
@@ -3705,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>21</v>
@@ -3714,10 +3714,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>3</v>
@@ -3729,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>59</v>
@@ -3738,11 +3738,11 @@
         <v>5</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P32" s="6"/>
       <c r="R32" s="3"/>
@@ -3752,7 +3752,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>21</v>
@@ -3761,10 +3761,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>3</v>
@@ -3776,7 +3776,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>60</v>
@@ -3785,21 +3785,21 @@
         <v>5</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P33" s="6"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>21</v>
@@ -3808,10 +3808,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>3</v>
@@ -3823,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>61</v>
@@ -3832,11 +3832,11 @@
         <v>5</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P34" s="6"/>
       <c r="R34" s="3"/>
@@ -3846,7 +3846,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>21</v>
@@ -3855,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>3</v>
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>44</v>
@@ -3879,21 +3879,21 @@
         <v>5</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P35" s="6"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>21</v>
@@ -3902,10 +3902,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>3</v>
@@ -3917,7 +3917,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>62</v>
@@ -3926,21 +3926,21 @@
         <v>5</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P36" s="6"/>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>21</v>
@@ -3949,10 +3949,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>3</v>
@@ -3964,30 +3964,30 @@
         <v>4</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P37" s="6"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>21</v>
@@ -3996,10 +3996,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>3</v>
@@ -4011,30 +4011,30 @@
         <v>4</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P38" s="6"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>21</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>3</v>
@@ -4058,30 +4058,30 @@
         <v>4</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P39" s="6"/>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>21</v>
@@ -4090,10 +4090,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>3</v>
@@ -4105,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>63</v>
@@ -4114,21 +4114,21 @@
         <v>5</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P40" s="6"/>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>21</v>
@@ -4137,13 +4137,13 @@
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>4</v>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>64</v>
@@ -4161,21 +4161,21 @@
         <v>5</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P41" s="6"/>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>21</v>
@@ -4184,10 +4184,10 @@
         <v>2</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>4</v>
@@ -4199,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>65</v>
@@ -4208,18 +4208,18 @@
         <v>5</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P42" s="6"/>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>46</v>
@@ -4231,10 +4231,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>3</v>
@@ -4246,30 +4246,30 @@
         <v>4</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P43" s="6"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>21</v>
@@ -4278,10 +4278,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>3</v>
@@ -4293,30 +4293,30 @@
         <v>4</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P44" s="6"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>21</v>
@@ -4325,10 +4325,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>3</v>
@@ -4340,27 +4340,27 @@
         <v>4</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P45" s="6"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>47</v>
@@ -4372,10 +4372,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>3</v>
@@ -4387,30 +4387,30 @@
         <v>4</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P46" s="6"/>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>21</v>
@@ -4419,10 +4419,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>3</v>
@@ -4434,30 +4434,30 @@
         <v>4</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P47" s="6"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>21</v>
@@ -4466,10 +4466,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>3</v>
@@ -4481,30 +4481,30 @@
         <v>4</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P48" s="6"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>21</v>
@@ -4513,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>3</v>
@@ -4528,7 +4528,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>66</v>
@@ -4537,21 +4537,21 @@
         <v>5</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P49" s="6"/>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>21</v>
@@ -4560,10 +4560,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>3</v>
@@ -4575,7 +4575,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>67</v>
@@ -4584,21 +4584,21 @@
         <v>5</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P50" s="6"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>21</v>
@@ -4607,10 +4607,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>3</v>
@@ -4622,7 +4622,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>68</v>
@@ -4631,11 +4631,11 @@
         <v>5</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P51" s="6"/>
       <c r="R51" s="3"/>
@@ -4645,16 +4645,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>39</v>
@@ -4666,10 +4666,10 @@
         <v>43</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>8</v>
@@ -4678,32 +4678,32 @@
         <v>6</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N52" s="5">
         <v>1</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P52" s="6"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="4">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>39</v>
@@ -4715,191 +4715,191 @@
         <v>43</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P53" s="6"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N54" s="5">
         <v>1</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P54" s="6"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N55" s="5">
         <v>1</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P55" s="6"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N56" s="5">
         <v>1</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P56" s="6"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>39</v>
@@ -4911,25 +4911,25 @@
         <v>4</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N57" s="5">
         <v>0</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P57" s="6"/>
       <c r="R57" s="3"/>
@@ -4939,16 +4939,16 @@
         <v>40</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>36</v>
@@ -4960,10 +4960,10 @@
         <v>4</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>41</v>
@@ -4972,32 +4972,32 @@
         <v>6</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N58" s="5">
         <v>1</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P58" s="6"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>36</v>
@@ -5009,47 +5009,47 @@
         <v>4</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N59" s="5">
         <v>1</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P59" s="6"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>3</v>
@@ -5061,56 +5061,56 @@
         <v>4</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N60" s="5">
         <v>1</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P60" s="7"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>11</v>
@@ -5119,35 +5119,35 @@
         <v>6</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N61" s="5">
         <v>1</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P61" s="6"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D62" s="4">
         <v>3</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>3</v>
@@ -5156,49 +5156,49 @@
         <v>4</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N62" s="5">
         <v>0</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D63" s="4">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>3</v>
@@ -5207,96 +5207,96 @@
         <v>4</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N63" s="5">
         <v>1</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P63" s="6"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D64" s="4">
         <v>3</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N64" s="5">
         <v>1</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P64" s="6"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="C65" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>3</v>
@@ -5305,25 +5305,25 @@
         <v>4</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N65" s="5">
         <v>1</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P65" s="6"/>
       <c r="R65" s="3"/>
@@ -5336,13 +5336,13 @@
         <v>25</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>39</v>
@@ -5354,25 +5354,25 @@
         <v>4</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N66" s="5">
         <v>0</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P66" s="6"/>
       <c r="R66" s="3"/>
@@ -5385,13 +5385,13 @@
         <v>38</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>39</v>
@@ -5403,10 +5403,10 @@
         <v>4</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>19</v>
@@ -5415,32 +5415,32 @@
         <v>6</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N67" s="5">
         <v>1</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P67" s="6"/>
       <c r="R67" s="3"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>36</v>
@@ -5452,44 +5452,44 @@
         <v>4</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N68" s="5">
         <v>1</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P68" s="6"/>
       <c r="R68" s="3"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>39</v>
@@ -5501,10 +5501,10 @@
         <v>43</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>31</v>
@@ -5513,35 +5513,35 @@
         <v>6</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N69" s="5">
         <v>1</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P69" s="6"/>
       <c r="R69" s="3"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D70" s="4">
         <v>3</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>3</v>
@@ -5553,44 +5553,44 @@
         <v>4</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N70" s="5">
         <v>1</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P70" s="7"/>
       <c r="R70" s="3"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="C71" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D71" s="4">
         <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>3</v>
@@ -5602,44 +5602,44 @@
         <v>4</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N71" s="5">
         <v>1</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P71" s="7"/>
       <c r="R71" s="3"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="C72" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D72" s="4">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>3</v>
@@ -5651,142 +5651,142 @@
         <v>4</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N72" s="5">
         <v>1</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P72" s="7"/>
       <c r="R72" s="3"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N73" s="5">
         <v>1</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P73" s="6"/>
       <c r="R73" s="3"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D74" s="4">
         <v>2</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N74" s="5">
         <v>1</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P74" s="6"/>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>3</v>
@@ -5795,93 +5795,93 @@
         <v>4</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N75" s="5">
         <v>1</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P75" s="6"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N76" s="5">
         <v>1</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P76" s="6"/>
       <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>36</v>
@@ -5893,44 +5893,44 @@
         <v>4</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N77" s="5">
         <v>1</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P77" s="6"/>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>39</v>
@@ -5942,44 +5942,44 @@
         <v>4</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N78" s="5">
         <v>1</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P78" s="6"/>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="C79" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>39</v>
@@ -5991,44 +5991,44 @@
         <v>4</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N79" s="5">
         <v>1</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P79" s="6"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>39</v>
@@ -6040,44 +6040,44 @@
         <v>4</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N80" s="5">
         <v>1</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P80" s="6"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>39</v>
@@ -6089,25 +6089,25 @@
         <v>4</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N81" s="5">
         <v>1</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P81" s="6"/>
       <c r="R81" s="3"/>
@@ -6120,16 +6120,16 @@
         <v>23</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>3</v>
@@ -6138,10 +6138,10 @@
         <v>4</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>9</v>
@@ -6150,13 +6150,13 @@
         <v>6</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N82" s="5">
         <v>1</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P82" s="6"/>
       <c r="R82" s="3"/>
@@ -6169,16 +6169,16 @@
         <v>37</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>3</v>
@@ -6187,25 +6187,25 @@
         <v>43</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N83" s="5">
         <v>1</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P83" s="6"/>
       <c r="R83" s="3"/>
@@ -6218,13 +6218,13 @@
         <v>28</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>39</v>
@@ -6236,10 +6236,10 @@
         <v>4</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>29</v>
@@ -6248,32 +6248,32 @@
         <v>6</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N84" s="5">
         <v>1</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P84" s="6"/>
       <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>39</v>
@@ -6285,44 +6285,44 @@
         <v>4</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N85" s="5">
         <v>1</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P85" s="6"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>39</v>
@@ -6334,44 +6334,44 @@
         <v>4</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N86" s="5">
         <v>1</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P86" s="6"/>
       <c r="R86" s="3"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>39</v>
@@ -6383,25 +6383,25 @@
         <v>4</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N87" s="5">
         <v>1</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P87" s="6"/>
       <c r="R87" s="3"/>
@@ -6414,13 +6414,13 @@
         <v>24</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>39</v>
@@ -6429,47 +6429,47 @@
         <v>3</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N88" s="5">
         <v>1</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P88" s="6"/>
       <c r="R88" s="3"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="C89" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>39</v>
@@ -6478,77 +6478,77 @@
         <v>3</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N89" s="5">
         <v>1</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P89" s="6"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N90" s="5">
         <v>0</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P90" s="6"/>
       <c r="R90" s="3"/>
@@ -6561,13 +6561,13 @@
         <v>22</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D91" s="4">
         <v>2</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>39</v>
@@ -6579,44 +6579,44 @@
         <v>4</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N91" s="5">
         <v>1</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P91" s="6"/>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D92" s="4">
         <v>2</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>39</v>
@@ -6625,47 +6625,47 @@
         <v>3</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N92" s="5">
         <v>1</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P92" s="6"/>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>39</v>
@@ -6674,49 +6674,49 @@
         <v>3</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N93" s="5">
         <v>1</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="C94" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D94" s="4">
         <v>2</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>4</v>
@@ -6725,25 +6725,25 @@
         <v>4</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N94" s="5">
         <v>1</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P94" s="6"/>
     </row>
@@ -6755,13 +6755,13 @@
         <v>26</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>39</v>
@@ -6773,43 +6773,43 @@
         <v>4</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N95" s="5">
         <v>0</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P95" s="6"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D96" s="4">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>39</v>
@@ -6818,28 +6818,28 @@
         <v>3</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N96" s="5">
         <v>1</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P96" s="6"/>
     </row>
@@ -6907,39 +6907,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="9">
         <v>53</v>
@@ -6947,19 +6947,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="9">
         <v>54</v>
@@ -6967,19 +6967,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="9">
         <v>199</v>
@@ -6987,19 +6987,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="9">
         <v>27</v>
@@ -7007,19 +7007,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="9">
         <v>97</v>
@@ -7027,19 +7027,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="9">
         <v>95</v>
@@ -7047,19 +7047,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="9">
         <v>13</v>
@@ -7067,19 +7067,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="9">
         <v>229</v>
@@ -7087,19 +7087,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="9">
         <v>93</v>
@@ -7107,19 +7107,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="9">
         <v>50</v>
@@ -7127,19 +7127,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="9">
         <v>192</v>
@@ -7147,19 +7147,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="9">
         <v>212</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="9">
         <v>22</v>
@@ -7187,19 +7187,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="9">
         <v>187</v>
@@ -7207,19 +7207,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="9">
         <v>15</v>
@@ -7227,19 +7227,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>317</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="9">
         <v>92</v>
@@ -7247,19 +7247,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="9">
         <v>341</v>
@@ -7267,19 +7267,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="9">
         <v>205</v>
@@ -7287,19 +7287,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="9">
         <v>231</v>
@@ -7307,19 +7307,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="9">
         <v>321</v>
@@ -7327,19 +7327,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="9">
         <v>374</v>
@@ -7347,19 +7347,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="9">
         <v>351</v>
@@ -7367,19 +7367,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="9">
         <v>427</v>
@@ -7387,19 +7387,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="9">
         <v>378</v>
@@ -7407,19 +7407,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="9">
         <v>445</v>
@@ -7427,19 +7427,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="9">
         <v>17</v>
@@ -7447,37 +7447,37 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>365</v>
-      </c>
       <c r="D28" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="9">
         <v>190</v>
@@ -7485,19 +7485,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="8">
         <v>10</v>
@@ -7505,36 +7505,36 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>361</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="8">
         <v>441</v>
@@ -7542,19 +7542,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>371</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" s="8">
         <v>503</v>
@@ -7562,19 +7562,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>380</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="8">
         <v>25</v>
@@ -7582,19 +7582,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>426</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="8">
         <v>46</v>

--- a/modules/nowcast-model/nowcast-model-variables.xlsx
+++ b/modules/nowcast-model/nowcast-model-variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\nowcast-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83467E9A-42B2-4820-94E1-570750F0E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5EA77-9B83-4D2C-A6E9-BBB3E5EA8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
@@ -2198,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3B5527-644C-49DA-B440-BA66BC9FC6D2}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P35" s="6"/>
       <c r="R35" s="3"/>
